--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.14036266666667</v>
+        <v>7.010007333333333</v>
       </c>
       <c r="H2">
-        <v>30.421088</v>
+        <v>21.030022</v>
       </c>
       <c r="I2">
-        <v>0.2516861604360147</v>
+        <v>0.1776683022271353</v>
       </c>
       <c r="J2">
-        <v>0.2516861604360147</v>
+        <v>0.1776683022271353</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,10 +552,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.7679456666666665</v>
+        <v>0.01259466666666667</v>
       </c>
       <c r="N2">
-        <v>2.303837</v>
+        <v>0.037784</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>7.787247568295109</v>
+        <v>0.08828870569422222</v>
       </c>
       <c r="R2">
-        <v>70.08522811465599</v>
+        <v>0.7945983512479999</v>
       </c>
       <c r="S2">
-        <v>0.2516861604360147</v>
+        <v>0.1776683022271353</v>
       </c>
       <c r="T2">
-        <v>0.2516861604360147</v>
+        <v>0.1776683022271353</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,10 +602,10 @@
         <v>82.571836</v>
       </c>
       <c r="I3">
-        <v>0.6831507263314283</v>
+        <v>0.6975930844911837</v>
       </c>
       <c r="J3">
-        <v>0.6831507263314283</v>
+        <v>0.6975930844911837</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,10 +614,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.7679456666666665</v>
+        <v>0.01259466666666667</v>
       </c>
       <c r="N3">
-        <v>2.303837</v>
+        <v>0.037784</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>21.13689454830355</v>
+        <v>0.3466549168248889</v>
       </c>
       <c r="R3">
-        <v>190.232050934732</v>
+        <v>3.119894251424</v>
       </c>
       <c r="S3">
-        <v>0.6831507263314283</v>
+        <v>0.6975930844911837</v>
       </c>
       <c r="T3">
-        <v>0.6831507263314283</v>
+        <v>0.6975930844911837</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.625403</v>
+        <v>4.921635333333334</v>
       </c>
       <c r="H4">
-        <v>7.876209</v>
+        <v>14.764906</v>
       </c>
       <c r="I4">
-        <v>0.06516311323255707</v>
+        <v>0.124738613281681</v>
       </c>
       <c r="J4">
-        <v>0.06516311323255707</v>
+        <v>0.124738613281681</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,10 +676,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.7679456666666665</v>
+        <v>0.01259466666666667</v>
       </c>
       <c r="N4">
-        <v>2.303837</v>
+        <v>0.037784</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>2.016166857103666</v>
+        <v>0.06198635647822222</v>
       </c>
       <c r="R4">
-        <v>18.145501713933</v>
+        <v>0.557877208304</v>
       </c>
       <c r="S4">
-        <v>0.06516311323255707</v>
+        <v>0.124738613281681</v>
       </c>
       <c r="T4">
-        <v>0.06516311323255707</v>
+        <v>0.124738613281681</v>
       </c>
     </row>
   </sheetData>
